--- a/media/Planilla de Calificaciones.xlsx
+++ b/media/Planilla de Calificaciones.xlsx
@@ -1515,7 +1515,7 @@
       <c r="B10" s="109" t="n"/>
       <c r="C10" s="112" t="inlineStr">
         <is>
-          <t>1ra. Etapa</t>
+          <t>2da. Etapa</t>
         </is>
       </c>
       <c r="D10" s="109" t="n"/>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="C16" s="16" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D16" s="17" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E16" s="18">
         <f>D16/C16*100</f>
@@ -1814,10 +1814,10 @@
         </is>
       </c>
       <c r="C17" s="16" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D17" s="17" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E17" s="18">
         <f>D17/C17*100</f>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="C18" s="16" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D18" s="17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" s="18">
         <f>D18/C18*100</f>
@@ -2417,7 +2417,7 @@
       <c r="B43" s="109" t="n"/>
       <c r="C43" s="108" t="inlineStr">
         <is>
-          <t>1ra. Etapa</t>
+          <t>2da. Etapa</t>
         </is>
       </c>
       <c r="D43" s="109" t="n"/>
